--- a/Чек-лист для (тепловизор + локал).xlsx
+++ b/Чек-лист для (тепловизор + локал).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\Контраст\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E95655-6701-45BD-B46A-51D31191ECE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB353C97-DB86-4E50-A92D-78DF332DE672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{126295D2-B400-4284-97D2-093116D5AAB0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
   <si>
     <t>Название тест-кейса</t>
   </si>
@@ -477,9 +477,6 @@
     <t>CIR-W0049</t>
   </si>
   <si>
-    <t>CIR-W0050</t>
-  </si>
-  <si>
     <t>Проверить верификацию</t>
   </si>
   <si>
@@ -508,6 +505,54 @@
   </si>
   <si>
     <t>Проверить верификацию после захвата в форме захвата</t>
+  </si>
+  <si>
+    <t>CIR-W0019</t>
+  </si>
+  <si>
+    <t>CIR-W0020</t>
+  </si>
+  <si>
+    <t>Выбор инфракрасного кадра как основного</t>
+  </si>
+  <si>
+    <t>Проверить выбор инфракрасного кадра как основного кадра</t>
+  </si>
+  <si>
+    <t>Верификация с инфракрасным кадром</t>
+  </si>
+  <si>
+    <t>CIR-T0050</t>
+  </si>
+  <si>
+    <t>Проверить верификацию с инфракрасным кадром</t>
+  </si>
+  <si>
+    <t>CIR-T0053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Два нажатия подряд по кнопке «Стоп F6» </t>
+  </si>
+  <si>
+    <t>Проверить что после двух нажатий по кнопке «Стоп F6» во время захвата АРМ ОПК и форма захвата будут работать в штатном режиме</t>
+  </si>
+  <si>
+    <t>CIR-T0054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закрыть инфракрасный канал </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить захват при закрытом инфракрасном канале  </t>
+  </si>
+  <si>
+    <t>CIR-T0055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закрыть видимый канал </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить захват при закрытом видимом канале  </t>
   </si>
 </sst>
 </file>
@@ -590,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -614,32 +659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -653,20 +672,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -676,16 +682,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -701,13 +715,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,104 +725,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
@@ -1130,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D156B66-8921-4E30-AB14-A0B6597CD9FC}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,954 +1136,1013 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="11"/>
-      <c r="I7" s="6"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="8"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="11"/>
-      <c r="I9" s="6"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="8"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="E15" s="16"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="31"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="10"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="40"/>
-    </row>
-    <row r="30" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="41"/>
-    </row>
-    <row r="31" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="33"/>
+    </row>
+    <row r="38" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="34"/>
+    </row>
+    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="20"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="20"/>
+    </row>
+    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="26"/>
-    </row>
-    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="26"/>
-    </row>
-    <row r="35" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="C52" s="6"/>
+      <c r="D52" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="20"/>
+    </row>
+    <row r="53" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="35"/>
+    </row>
+    <row r="58" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="18"/>
-    </row>
-    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="18"/>
-    </row>
-    <row r="49" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="C58" s="6"/>
+      <c r="D58" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="C59" s="6"/>
+      <c r="D59" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="C60" s="6"/>
+      <c r="D60" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="22" t="s">
+      <c r="C61" s="6"/>
+      <c r="D61" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="18"/>
-    </row>
-    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="E61" s="20"/>
+    </row>
+    <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E57" s="18"/>
-    </row>
-    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="46"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="11"/>
+      <c r="E62" s="36"/>
+    </row>
+    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="20"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="48"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="6"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="27"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="11"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="11"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="11"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="11"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="11"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="6"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="11"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="11"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="11"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="11"/>
-    </row>
-    <row r="81" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="11"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="11"/>
-    </row>
-    <row r="83" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="11"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="11"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="11"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="11"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="11"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="11"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Чек-лист для (тепловизор + локал).xlsx
+++ b/Чек-лист для (тепловизор + локал).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\Контраст\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\trenintest\Users\Ларионов\Тестовая документация\Контраст\Тепловизор + локальный сервис\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB353C97-DB86-4E50-A92D-78DF332DE672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4E476D-1873-448D-A748-BA000B182AD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{126295D2-B400-4284-97D2-093116D5AAB0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="177">
   <si>
     <t>Название тест-кейса</t>
   </si>
@@ -96,81 +96,42 @@
     <t>ID тест кейса</t>
   </si>
   <si>
-    <t>CIR-W0001</t>
-  </si>
-  <si>
-    <t>CIR-W0002</t>
-  </si>
-  <si>
-    <t>CIR-W0003</t>
-  </si>
-  <si>
-    <t>CIR-W0004</t>
-  </si>
-  <si>
     <t>Появление окна с описанием ошибки, когда отключена камера</t>
   </si>
   <si>
     <t>Проверить что появляется окно с описанием ошибки, когда отключена камера, при запуске «Система Каскад»</t>
   </si>
   <si>
-    <t>Проверить реинициализацию «Зритель-Каскад» при выходе из «Система Каскад»</t>
-  </si>
-  <si>
     <t>Проверить работу «Зритель-Контраст» в АРМ ОПК</t>
   </si>
   <si>
-    <t>CIR-W0005</t>
-  </si>
-  <si>
     <t>Появление окна с описанием ошибки, когда нет связи с сервисом</t>
   </si>
   <si>
     <t>Проверить что появляется окно с описанием ошибки, когда нет связи с сервисом, при запуске «Система Каскад»</t>
   </si>
   <si>
-    <t>CIR-W0006</t>
-  </si>
-  <si>
     <t>Проверить что видеопоток в окне «Видеокамера» появился</t>
   </si>
   <si>
     <t>Проверить появление захваченного кадра в окне «Видеокамера»</t>
   </si>
   <si>
-    <t>CIR-W0007</t>
-  </si>
-  <si>
-    <t>CIR-W0008</t>
-  </si>
-  <si>
     <t>Отработка таймаута в АРМ ОПК</t>
   </si>
   <si>
-    <t>CIR-W0009</t>
-  </si>
-  <si>
     <t xml:space="preserve">Проверить что по истечению 10 секунд в окне «Видеокамера» ничего не будет </t>
   </si>
   <si>
-    <t>CIR-W0010</t>
-  </si>
-  <si>
     <t>Проверить вызов формы двойным нажатием по окну «Видеокамера» с захваченным кадром в нем</t>
   </si>
   <si>
-    <t>CIR-W0012</t>
-  </si>
-  <si>
     <t>Вызов формы захвата во время захвата в АРМ ОПК</t>
   </si>
   <si>
     <t xml:space="preserve">Проверить что форма захвата не откроется во время захвата в АРМ ОПК двойным нажатием по окну «Видеокамера» </t>
   </si>
   <si>
-    <t>CIR-W0016</t>
-  </si>
-  <si>
     <t>Захват с одновременным сканированием документа с ИС</t>
   </si>
   <si>
@@ -186,159 +147,69 @@
     <t>Захват кадра в главной форме АРМ ОПК</t>
   </si>
   <si>
-    <t>CIR-W0017</t>
-  </si>
-  <si>
     <t>Захват с одновременным сканированием документа без ИС</t>
   </si>
   <si>
     <t>Произвести захват кадра во время сканирования документа без интегральной микросхемы, в главной форме АРМ ОПК</t>
   </si>
   <si>
-    <t>CIR-W0018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Отсутствие функции удаления фотографии при нажатии по кнопке «Изменить» </t>
   </si>
   <si>
     <t>Проверить что фотография из окна «Видеокамера» не удалилась после нажатия по кнопке «Изменить»</t>
   </si>
   <si>
-    <t>CIR-W0027</t>
-  </si>
-  <si>
     <t>Захват кадра на расстоянии в главной форме АРМ ОПК</t>
   </si>
   <si>
     <t xml:space="preserve">Проверить захват на расстоянии около двух метров от камеры </t>
   </si>
   <si>
-    <t>CIR-W0028</t>
-  </si>
-  <si>
     <t>Захват кадра на большом расстоянии в главной форме АРМ ОПК</t>
   </si>
   <si>
     <t xml:space="preserve">Проверить захват на расстоянии более двух метров от камеры </t>
   </si>
   <si>
-    <t>CIR-W0029</t>
-  </si>
-  <si>
     <t>Захват кадра с несколькими лицами, в главной форме АРМ ОПК</t>
   </si>
   <si>
     <t>Проверить захват с несколькими пассажирами в поле зрения видеокамеры</t>
   </si>
   <si>
-    <t>CIR-W0041</t>
-  </si>
-  <si>
-    <t>Проверить захват кадр в последние секунды перед окончанием таймаута, в главной форме АРМ ОПК</t>
-  </si>
-  <si>
     <t>Проверить форму захвата</t>
   </si>
   <si>
-    <t>CIR-W0011</t>
-  </si>
-  <si>
     <t>Вызов формы захвата без захваченного кадра</t>
   </si>
   <si>
-    <t>Проверить вызов формы двойным нажатием по окну «Видеокамера» без захваченным кадром в нем</t>
-  </si>
-  <si>
-    <t>CIR-W0013</t>
-  </si>
-  <si>
     <t>Нажатие по кнопке «Старт F5» в форме захвата</t>
   </si>
   <si>
-    <t>Проверить что после нажатия на кнопку «Старт F5» в форме захвата появиться видеопоток</t>
-  </si>
-  <si>
-    <t>CIR-W0014</t>
-  </si>
-  <si>
     <t xml:space="preserve">Нажатие по кнопке «Стоп F6» в форме захвата </t>
   </si>
   <si>
-    <t xml:space="preserve">Проверить что после нажатия по кнопе «Стоп F6» будет произведен захват </t>
-  </si>
-  <si>
-    <t>CIR-W0015</t>
-  </si>
-  <si>
-    <t>Проверить что после нажатия по кнопе «Закрыть Esc» форма захвата закроется</t>
-  </si>
-  <si>
     <t>Нажатие по кнопке «Закрыть Esc» в форме захвата</t>
   </si>
   <si>
-    <t>CIR-W0030</t>
-  </si>
-  <si>
     <t>Захват кадра с несколькими лицами в форме захвата</t>
   </si>
   <si>
-    <t>CIR-W0031</t>
-  </si>
-  <si>
     <t>Проверить выбор других полученных захваченных кадров в форме захвата</t>
   </si>
   <si>
-    <t>CIR-W0032</t>
-  </si>
-  <si>
-    <t>Захват кадра на границе области с видеопотоком в форме захвата</t>
-  </si>
-  <si>
-    <t>Проверить что захват на границе области отрабатывает</t>
-  </si>
-  <si>
-    <t>CIR-W0033</t>
-  </si>
-  <si>
     <t>Считывание документа с ИС, в открытой форме захвата</t>
   </si>
   <si>
-    <t>Проверить что считывание документа с ИС не помешает работе формы захвата во время захвата</t>
-  </si>
-  <si>
-    <t>CIR-W0034</t>
-  </si>
-  <si>
     <t>Считывание документа без ИС, в открытой форме захвата</t>
   </si>
   <si>
-    <t>Проверить что считывание документа без ИС не помешает работе формы захвата во время захвата</t>
-  </si>
-  <si>
-    <t>CIR-W0035</t>
-  </si>
-  <si>
     <t>Повторное считывание документа с открытой формой захвата во время захвата</t>
   </si>
   <si>
     <t>Проверить захват в форме захвата после повторного считывания документа</t>
   </si>
   <si>
-    <t>CIR-W0042</t>
-  </si>
-  <si>
-    <t>Проверить захват кадр в последние секунды перед окончанием таймаута, в форме захвата</t>
-  </si>
-  <si>
-    <t>CIR-W0043</t>
-  </si>
-  <si>
-    <t>CIR-W0044</t>
-  </si>
-  <si>
-    <t>CIR-W0045</t>
-  </si>
-  <si>
     <t>Захват после таймаута в форме захвата</t>
   </si>
   <si>
@@ -354,12 +225,6 @@
     <t>Проверить после нажатия на кнопку «Стоп F6» и «Закрыть Esc» во время захвата, ничего не падает</t>
   </si>
   <si>
-    <t>CIR-W0051</t>
-  </si>
-  <si>
-    <t>CIR-W0052</t>
-  </si>
-  <si>
     <t>Проверить захват на расстоянии около двух метров от камеры</t>
   </si>
   <si>
@@ -369,15 +234,6 @@
     <t>Проверить захват на расстоянии более двух метров от камеры</t>
   </si>
   <si>
-    <t>CIR-W0021</t>
-  </si>
-  <si>
-    <t>CIR-W0022</t>
-  </si>
-  <si>
-    <t>CIR-W0023</t>
-  </si>
-  <si>
     <t>Проверить работу горячих клавиш в АРМ ОПК</t>
   </si>
   <si>
@@ -393,54 +249,21 @@
     <t>Проверка запуска захвата сочетанием клавиш Ctrl + F9 в главной форме АРМ ОПК</t>
   </si>
   <si>
-    <t>CIR-W0024</t>
-  </si>
-  <si>
-    <t>CIR-W0025</t>
-  </si>
-  <si>
-    <t>CIR-W0026</t>
-  </si>
-  <si>
     <t>Отключение видеокамеры</t>
   </si>
   <si>
     <t xml:space="preserve">Отключение видеокамеры во время захвата </t>
   </si>
   <si>
-    <t>Проверить что после отключения видеокамеры АРМ ОПК будет работать в штатном режиме</t>
-  </si>
-  <si>
     <t>Кратковременное отключение видеокамеры во время захвата</t>
   </si>
   <si>
-    <t>Проверить что после переподключения видеокамеры АРМ ОПК будет работать в штатном режиме</t>
-  </si>
-  <si>
     <t>Повторный захват после кратковременного отключения</t>
   </si>
   <si>
-    <t>Проверить что после переподключения видеокамеры и создания нового пассажира, отработает захват в АРМ ОПК</t>
-  </si>
-  <si>
     <t>Проверить логи</t>
   </si>
   <si>
-    <t>CIR-W0036</t>
-  </si>
-  <si>
-    <t>CIR-W0037</t>
-  </si>
-  <si>
-    <t>CIR-W0038</t>
-  </si>
-  <si>
-    <t>CIR-W0039</t>
-  </si>
-  <si>
-    <t>CIR-W0040</t>
-  </si>
-  <si>
     <t>Создание логов «Контраст» при входе в «Система Каскад»</t>
   </si>
   <si>
@@ -450,9 +273,6 @@
     <t>Изображения в папке «captures»</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверить что после захвата в папке «captures» будет архив «cap», внутри которого будут папками «shot» с изображениями полученные вовремя захвата и двумя файлами с информацией </t>
-  </si>
-  <si>
     <t>Начало работы «Контраст» в логах</t>
   </si>
   <si>
@@ -465,18 +285,6 @@
     <t xml:space="preserve">Проверить наличие надписи «Конец» в логах «Контраст» </t>
   </si>
   <si>
-    <t>CIR-W0046</t>
-  </si>
-  <si>
-    <t>CIR-W0047</t>
-  </si>
-  <si>
-    <t>CIR-W0048</t>
-  </si>
-  <si>
-    <t>CIR-W0049</t>
-  </si>
-  <si>
     <t>Проверить верификацию</t>
   </si>
   <si>
@@ -507,18 +315,9 @@
     <t>Проверить верификацию после захвата в форме захвата</t>
   </si>
   <si>
-    <t>CIR-W0019</t>
-  </si>
-  <si>
-    <t>CIR-W0020</t>
-  </si>
-  <si>
     <t>Выбор инфракрасного кадра как основного</t>
   </si>
   <si>
-    <t>Проверить выбор инфракрасного кадра как основного кадра</t>
-  </si>
-  <si>
     <t>Верификация с инфракрасным кадром</t>
   </si>
   <si>
@@ -534,9 +333,6 @@
     <t xml:space="preserve">Два нажатия подряд по кнопке «Стоп F6» </t>
   </si>
   <si>
-    <t>Проверить что после двух нажатий по кнопке «Стоп F6» во время захвата АРМ ОПК и форма захвата будут работать в штатном режиме</t>
-  </si>
-  <si>
     <t>CIR-T0054</t>
   </si>
   <si>
@@ -553,6 +349,213 @@
   </si>
   <si>
     <t xml:space="preserve">Проверить захват при закрытом видимом канале  </t>
+  </si>
+  <si>
+    <t>CIR-T0001</t>
+  </si>
+  <si>
+    <t>CIR-T0002</t>
+  </si>
+  <si>
+    <t>CIR-T0003</t>
+  </si>
+  <si>
+    <t>CIR-T0004</t>
+  </si>
+  <si>
+    <t>CIR-T0005</t>
+  </si>
+  <si>
+    <t>CIR-T0006</t>
+  </si>
+  <si>
+    <t>CIR-T0007</t>
+  </si>
+  <si>
+    <t>CIR-T0008</t>
+  </si>
+  <si>
+    <t>CIR-T0009</t>
+  </si>
+  <si>
+    <t>CIR-T0012</t>
+  </si>
+  <si>
+    <t>CIR-T0016</t>
+  </si>
+  <si>
+    <t>CIR-T0017</t>
+  </si>
+  <si>
+    <t>CIR-T0018</t>
+  </si>
+  <si>
+    <t>CIR-T0025</t>
+  </si>
+  <si>
+    <t>CIR-T0026</t>
+  </si>
+  <si>
+    <t>CIR-T0027</t>
+  </si>
+  <si>
+    <t>CIR-T0040</t>
+  </si>
+  <si>
+    <t>CIR-T0010</t>
+  </si>
+  <si>
+    <t>CIR-T0011</t>
+  </si>
+  <si>
+    <t>CIR-T0013</t>
+  </si>
+  <si>
+    <t>CIR-T0014</t>
+  </si>
+  <si>
+    <t>CIR-T0015</t>
+  </si>
+  <si>
+    <t>CIR-T0028</t>
+  </si>
+  <si>
+    <t>CIR-T0029</t>
+  </si>
+  <si>
+    <t>CIR-T0030</t>
+  </si>
+  <si>
+    <t>CIR-T0031</t>
+  </si>
+  <si>
+    <t>CIR-T0032</t>
+  </si>
+  <si>
+    <t>CIR-T0033</t>
+  </si>
+  <si>
+    <t>CIR-T0034</t>
+  </si>
+  <si>
+    <t>CIR-T0041</t>
+  </si>
+  <si>
+    <t>CIR-T0042</t>
+  </si>
+  <si>
+    <t>CIR-T0043</t>
+  </si>
+  <si>
+    <t>CIR-T0044</t>
+  </si>
+  <si>
+    <t>CIR-T0051</t>
+  </si>
+  <si>
+    <t>CIR-T0052</t>
+  </si>
+  <si>
+    <t>CIR-T0019</t>
+  </si>
+  <si>
+    <t>CIR-T0020</t>
+  </si>
+  <si>
+    <t>CIR-T0021</t>
+  </si>
+  <si>
+    <t>CIR-T0022</t>
+  </si>
+  <si>
+    <t>CIR-T0023</t>
+  </si>
+  <si>
+    <t>CIR-T0024</t>
+  </si>
+  <si>
+    <t>CIR-T0035</t>
+  </si>
+  <si>
+    <t>CIR-T0036</t>
+  </si>
+  <si>
+    <t>CIR-T0037</t>
+  </si>
+  <si>
+    <t>CIR-T0038</t>
+  </si>
+  <si>
+    <t>CIR-T0039</t>
+  </si>
+  <si>
+    <t>CIR-T0045</t>
+  </si>
+  <si>
+    <t>CIR-T0046</t>
+  </si>
+  <si>
+    <t>CIR-T0047</t>
+  </si>
+  <si>
+    <t>CIR-T0048</t>
+  </si>
+  <si>
+    <t>CIR-T0049</t>
+  </si>
+  <si>
+    <t>Проверить реинициализацию «Зритель-Каскад» при выходе из «АРМ ОПК»</t>
+  </si>
+  <si>
+    <t>Проверить захват кадра в последние секунды перед окончанием таймаута, в главной форме АРМ ОПК</t>
+  </si>
+  <si>
+    <t>Проверить вызов формы двойным нажатием по окну «Видеокамера» без захваченного кадра в нем</t>
+  </si>
+  <si>
+    <t>Проверить захват кадра в последние секунды перед окончанием таймаута, в форме захвата</t>
+  </si>
+  <si>
+    <t>Проверить, что после нажатия на кнопку «Старт F5» в форме захвата появиться видеопоток</t>
+  </si>
+  <si>
+    <t>Проверить, что считывание документа с ИС не помешает работе формы захвата во время захвата</t>
+  </si>
+  <si>
+    <t>Проверить, что считывание документа без ИС не помешает работе формы захвата во время захвата</t>
+  </si>
+  <si>
+    <t>Проверить, что после двух нажатий по кнопке «Стоп F6» во время захвата АРМ ОПК и форма захвата будут работать в штатном режиме</t>
+  </si>
+  <si>
+    <t>Проверить, что после отключения видеокамеры АРМ ОПК будет работать в штатном режиме</t>
+  </si>
+  <si>
+    <t>Проверить, что после переподключения видеокамеры АРМ ОПК будет работать в штатном режиме</t>
+  </si>
+  <si>
+    <t>Проверить, что после переподключения видеокамеры и создания нового пассажира, отработает захват в АРМ ОПК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить, что после захвата в папке «captures» будет архив «cap», внутри которого будут папками «shot» с изображениями полученные вовремя захвата и двумя файлами с информацией </t>
+  </si>
+  <si>
+    <t>Захват кадра на границе видеопотока в форме захвата</t>
+  </si>
+  <si>
+    <t>Проверить, что захват на границе видеопотока отрабатывает</t>
+  </si>
+  <si>
+    <t>Проверить, что выбор инфракрасного кадра как основного не осуществляется</t>
+  </si>
+  <si>
+    <t>не актуален</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить, что после нажатия по кнопке «Стоп F6» будет произведен захват </t>
+  </si>
+  <si>
+    <t>Проверить, что после нажатия по кнопке «Закрыть Esc» форма захвата закроется</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -698,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -801,6 +810,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1119,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D156B66-8921-4E30-AB14-A0B6597CD9FC}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1190,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="15" t="s">
@@ -1179,7 +1203,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15" t="s">
@@ -1188,42 +1212,44 @@
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="16"/>
+      <c r="B5" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="8"/>
@@ -1231,7 +1257,7 @@
     </row>
     <row r="8" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
@@ -1242,14 +1268,14 @@
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
@@ -1257,14 +1283,14 @@
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -1273,63 +1299,63 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="15" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E15" s="16"/>
       <c r="G15" s="5"/>
@@ -1337,53 +1363,53 @@
     </row>
     <row r="16" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="15" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="15" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="15" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E19" s="16"/>
       <c r="I19" s="5"/>
@@ -1393,18 +1419,18 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="15" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="E20" s="16"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="38"/>
@@ -1417,75 +1443,76 @@
         <v>6</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="15" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="15" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="15" t="s">
-        <v>79</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="15" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="15" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E27" s="16"/>
     </row>
@@ -1494,76 +1521,76 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="15" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="15" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="15" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="15" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="22" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E33" s="16"/>
     </row>
@@ -1572,24 +1599,24 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="15" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="15" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="E35" s="16"/>
     </row>
@@ -1598,24 +1625,24 @@
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="15" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="E36" s="16"/>
     </row>
     <row r="37" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="15" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="E37" s="33"/>
     </row>
@@ -1624,69 +1651,69 @@
         <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="15" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="15" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="22" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="15" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="6"/>
@@ -1698,11 +1725,11 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="15" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="E44" s="16"/>
     </row>
@@ -1711,30 +1738,30 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="15" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="E45" s="34"/>
     </row>
     <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="15" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E46" s="16"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="6"/>
@@ -1743,46 +1770,46 @@
     </row>
     <row r="48" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="15" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="E48" s="20"/>
     </row>
     <row r="49" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="15" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="E49" s="20"/>
     </row>
     <row r="50" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="15" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="E50" s="20"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="6"/>
@@ -1791,53 +1818,53 @@
     </row>
     <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="15" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="E52" s="20"/>
     </row>
     <row r="53" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="15" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E53" s="21"/>
     </row>
     <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="15" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="E54" s="16"/>
     </row>
     <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="15" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="E55" s="16"/>
     </row>
@@ -1846,7 +1873,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="15" t="s">
@@ -1856,7 +1883,7 @@
     </row>
     <row r="57" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="6"/>
@@ -1865,40 +1892,40 @@
     </row>
     <row r="58" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="15" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="E58" s="16"/>
     </row>
     <row r="59" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="15" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="E59" s="16"/>
     </row>
     <row r="60" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="15" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="E60" s="20"/>
     </row>
@@ -1907,39 +1934,41 @@
         <v>14</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="15" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="15" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="E62" s="36"/>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" s="20"/>
+      <c r="A63" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="41"/>
+      <c r="D63" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>

--- a/Чек-лист для (тепловизор + локал).xlsx
+++ b/Чек-лист для (тепловизор + локал).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\Контраст\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81BF929-EBD2-4F8A-B8B2-90417BB35E2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33564D9F-B6E0-4CAD-A8C8-6DBC073C4DDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{126295D2-B400-4284-97D2-093116D5AAB0}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>Проверить деинициализацию «Зритель-Каскад» при выходе из «Система Каскад»</t>
   </si>
   <si>
-    <t>Проверка инициализации</t>
-  </si>
-  <si>
     <t>ID тест кейса</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Проверить захват с несколькими пассажирами в поле зрения видеокамеры</t>
   </si>
   <si>
-    <t>Проверить форму захвата</t>
-  </si>
-  <si>
     <t>Вызов формы захвата без захваченного кадра</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>Повторный захват после кратковременного отключения</t>
   </si>
   <si>
-    <t>Проверить логи</t>
-  </si>
-  <si>
     <t>Создание логов «Контраст» при входе в «Система Каскад»</t>
   </si>
   <si>
@@ -552,9 +543,6 @@
     <t>Проверить что появляется окно с описанием ошибки, когда отключена камера, при запуске ContrastApp</t>
   </si>
   <si>
-    <t>Вкладка сьемка</t>
-  </si>
-  <si>
     <t>Захват по нажатию кнопки «Старт [F5]»</t>
   </si>
   <si>
@@ -657,9 +645,6 @@
     <t>Проверить, что по истечению 4 секунд, без пассажира в поле зрения видеокамеры, таймаут отработает и в рабочей области будет пустой кадр, после нажатия на кнопку «Автозахват [F7]»</t>
   </si>
   <si>
-    <t>Форма захвата ContrastApp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Проверить вызов формы захвата с набором захваченных кадров </t>
   </si>
   <si>
@@ -811,6 +796,21 @@
   </si>
   <si>
     <t>CIR-T0081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить вкладку съемка в тестовом приложении </t>
+  </si>
+  <si>
+    <t>Проверка инициализации в Каскад</t>
+  </si>
+  <si>
+    <t>Проверить форму захвата в Каскаде</t>
+  </si>
+  <si>
+    <t>Проверить форму захвата в тестовом приложении</t>
+  </si>
+  <si>
+    <t>Проверить наличие логов</t>
   </si>
 </sst>
 </file>
@@ -934,7 +934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -965,12 +965,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -996,9 +990,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1013,6 +1004,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1331,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D156B66-8921-4E30-AB14-A0B6597CD9FC}">
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,26 +1344,26 @@
     <col min="9" max="9" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1374,455 +1371,455 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C32" s="23"/>
+      <c r="D32" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C33" s="23"/>
+      <c r="D33" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="C34" s="23"/>
+      <c r="D34" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="14" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="14" t="s">
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="B37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>20</v>
+    <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="6"/>
@@ -1830,55 +1827,55 @@
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="8"/>
@@ -1886,7 +1883,7 @@
     </row>
     <row r="43" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="6"/>
@@ -1896,453 +1893,453 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>37</v>
+      <c r="A44" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="27"/>
+      <c r="D44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="24"/>
       <c r="F44" s="8"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="27"/>
-    </row>
-    <row r="46" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="B50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="E50" s="1"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="14" t="s">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="B52" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="14" t="s">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="B53" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="14" t="s">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="B54" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="E54" s="1"/>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="14" t="s">
-        <v>154</v>
+      <c r="D55" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="E55" s="1"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="B56" s="7"/>
-      <c r="C56" s="25"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="27"/>
-    </row>
-    <row r="58" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="14" t="s">
+      <c r="C66" s="6"/>
+      <c r="D66" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="14" t="s">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="24"/>
+    </row>
+    <row r="74" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="24"/>
+    </row>
+    <row r="75" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="E75" s="24"/>
+    </row>
+    <row r="76" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="C76" s="10"/>
+      <c r="D76" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="24"/>
+    </row>
+    <row r="77" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E73" s="27"/>
-    </row>
-    <row r="74" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E74" s="27"/>
-    </row>
-    <row r="75" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E75" s="27"/>
-    </row>
-    <row r="76" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="17" t="s">
+      <c r="C77" s="10"/>
+      <c r="D77" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E76" s="27"/>
-    </row>
-    <row r="77" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="27"/>
+      <c r="E77" s="24"/>
     </row>
     <row r="78" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="6"/>
@@ -2350,47 +2347,47 @@
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C79" s="10"/>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="14" t="s">
+      <c r="B81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="E80" s="27"/>
-    </row>
-    <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="6"/>
@@ -2398,47 +2395,47 @@
       <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="11"/>
+    </row>
+    <row r="84" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E83" s="11"/>
-    </row>
-    <row r="84" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E84" s="11"/>
-    </row>
-    <row r="85" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
-        <v>76</v>
-      </c>
       <c r="B85" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C85" s="6"/>
-      <c r="D85" s="14" t="s">
-        <v>163</v>
+      <c r="D85" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="E85" s="11"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="6"/>
@@ -2446,73 +2443,73 @@
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E87" s="11"/>
+    </row>
+    <row r="88" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="14" t="s">
+      <c r="B89" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+      <c r="B90" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="14" t="s">
-        <v>84</v>
-      </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C91" s="6"/>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="6"/>
@@ -2520,270 +2517,270 @@
       <c r="E92" s="9"/>
     </row>
     <row r="93" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="14" t="s">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
+      <c r="B95" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="14" t="s">
+      <c r="E95" s="11"/>
+    </row>
+    <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="E96" s="11"/>
+    </row>
+    <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="14" t="s">
+      <c r="B97" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E95" s="11"/>
-    </row>
-    <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E96" s="11"/>
-    </row>
-    <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
+      <c r="A98" s="19"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="21"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="19"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
+      <c r="A99" s="19"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="21"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="19"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
+      <c r="A100" s="19"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="21"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="19"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
+      <c r="A101" s="19"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="21"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="19"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
+      <c r="A102" s="19"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="22"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="20"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
+      <c r="A103" s="19"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="21"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="19"/>
       <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="18"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="18"/>
+      <c r="C105" s="16"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
-      <c r="C106" s="18"/>
+      <c r="C106" s="16"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
-      <c r="C107" s="18"/>
+      <c r="C107" s="16"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
     </row>
     <row r="108" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="18"/>
+      <c r="C108" s="16"/>
       <c r="D108" s="5"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
+      <c r="A109" s="17"/>
       <c r="B109" s="5"/>
-      <c r="C109" s="18"/>
+      <c r="C109" s="16"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
-      <c r="C110" s="18"/>
+      <c r="C110" s="16"/>
       <c r="D110" s="5"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
-      <c r="C111" s="18"/>
+      <c r="C111" s="16"/>
       <c r="D111" s="5"/>
       <c r="E111" s="8"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
-      <c r="C112" s="18"/>
+      <c r="C112" s="16"/>
       <c r="D112" s="5"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
-      <c r="C113" s="18"/>
+      <c r="C113" s="16"/>
       <c r="D113" s="5"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
+      <c r="A114" s="18"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="18"/>
+      <c r="C114" s="16"/>
       <c r="D114" s="8"/>
       <c r="E114" s="5"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
-      <c r="C115" s="18"/>
+      <c r="C115" s="16"/>
       <c r="D115" s="5"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="18"/>
+      <c r="C116" s="16"/>
       <c r="D116" s="5"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="18"/>
+      <c r="C117" s="16"/>
       <c r="D117" s="5"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
-      <c r="C118" s="18"/>
+      <c r="C118" s="16"/>
       <c r="D118" s="5"/>
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
-      <c r="C119" s="18"/>
+      <c r="C119" s="16"/>
       <c r="D119" s="5"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
-      <c r="C120" s="18"/>
+      <c r="C120" s="16"/>
       <c r="D120" s="5"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="18"/>
+      <c r="C121" s="16"/>
       <c r="D121" s="5"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
-      <c r="C122" s="18"/>
+      <c r="C122" s="16"/>
       <c r="D122" s="5"/>
       <c r="E122" s="8"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
-      <c r="C123" s="18"/>
+      <c r="C123" s="16"/>
       <c r="D123" s="5"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
-      <c r="C124" s="18"/>
+      <c r="C124" s="16"/>
       <c r="D124" s="5"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
-      <c r="C125" s="18"/>
+      <c r="C125" s="16"/>
       <c r="D125" s="5"/>
       <c r="E125" s="8"/>
     </row>
     <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
-      <c r="C126" s="18"/>
+      <c r="C126" s="16"/>
       <c r="D126" s="5"/>
       <c r="E126" s="8"/>
     </row>
